--- a/imdb2019.xlsx
+++ b/imdb2019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="416">
   <si>
     <t>Rank</t>
   </si>
@@ -338,325 +338,341 @@
     <t>Knives Out</t>
   </si>
   <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>Once Upon a Time... in Hollywood</t>
+  </si>
+  <si>
     <t>Doctor Sleep</t>
   </si>
   <si>
-    <t>Once Upon a Time... in Hollywood</t>
-  </si>
-  <si>
     <t>The Gentlemen</t>
   </si>
   <si>
+    <t>Ford v. Ferrari</t>
+  </si>
+  <si>
+    <t>Jumanji: The Next Level</t>
+  </si>
+  <si>
+    <t>Frozen 2</t>
+  </si>
+  <si>
     <t>Gisaengchung</t>
   </si>
   <si>
-    <t>Ford v. Ferrari</t>
+    <t>Joker</t>
   </si>
   <si>
     <t>Avengers: Endgame</t>
   </si>
   <si>
-    <t>Joker</t>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>Midsommar</t>
+  </si>
+  <si>
+    <t>Uncut Gems</t>
+  </si>
+  <si>
+    <t>Above Suspicion</t>
+  </si>
+  <si>
+    <t>It Chapter Two</t>
   </si>
   <si>
     <t>7500</t>
   </si>
   <si>
-    <t>Uncut Gems</t>
-  </si>
-  <si>
-    <t>1917</t>
-  </si>
-  <si>
-    <t>Midsommar</t>
-  </si>
-  <si>
-    <t>Frozen 2</t>
+    <t>Star Wars: Episode IX - The Rise of Skywalker</t>
+  </si>
+  <si>
+    <t>Jojo Rabbit</t>
+  </si>
+  <si>
+    <t>Guns Akimbo</t>
+  </si>
+  <si>
+    <t>Little Women</t>
+  </si>
+  <si>
+    <t>Ad Astra</t>
+  </si>
+  <si>
+    <t>Charlie's Angels</t>
+  </si>
+  <si>
+    <t>Only</t>
   </si>
   <si>
     <t>Wasp Network</t>
   </si>
   <si>
-    <t>Jumanji: The Next Level</t>
-  </si>
-  <si>
     <t>Gemini Man</t>
   </si>
   <si>
-    <t>Star Wars: Episode IX - The Rise of Skywalker</t>
-  </si>
-  <si>
-    <t>Jojo Rabbit</t>
-  </si>
-  <si>
-    <t>Charlie's Angels</t>
-  </si>
-  <si>
-    <t>Little Women</t>
-  </si>
-  <si>
     <t>Ready or Not</t>
   </si>
   <si>
-    <t>Ad Astra</t>
+    <t>The Goldfinch</t>
+  </si>
+  <si>
+    <t>Hustlers</t>
+  </si>
+  <si>
+    <t>The Vast of Night</t>
   </si>
   <si>
     <t>Rocketman</t>
   </si>
   <si>
+    <t>The Irishman</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>The Lighthouse</t>
+  </si>
+  <si>
+    <t>Bombshell</t>
+  </si>
+  <si>
+    <t>First Cow</t>
+  </si>
+  <si>
+    <t>A Beautiful Day in the Neighborhood</t>
+  </si>
+  <si>
+    <t>Terminator: Dark Fate</t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>True History of the Kelly Gang</t>
+  </si>
+  <si>
+    <t>The Beach House</t>
+  </si>
+  <si>
+    <t>Alita: Battle Angel</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Captain Marvel</t>
+  </si>
+  <si>
+    <t>Spider-Man: Far from Home</t>
+  </si>
+  <si>
+    <t>Rambo: Last Blood</t>
+  </si>
+  <si>
+    <t>Fast &amp; Furious Presents: Hobbs &amp; Shaw</t>
+  </si>
+  <si>
+    <t>Crawl</t>
+  </si>
+  <si>
+    <t>Portrait de la jeune fille en feu</t>
+  </si>
+  <si>
+    <t>El hoyo</t>
+  </si>
+  <si>
+    <t>The Informer</t>
+  </si>
+  <si>
+    <t>The Lodge</t>
+  </si>
+  <si>
+    <t>6 Underground</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Zombieland: Double Tap</t>
+  </si>
+  <si>
+    <t>Toy Story 4</t>
+  </si>
+  <si>
+    <t>Scary Stories to Tell in the Dark</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>I See You</t>
+  </si>
+  <si>
+    <t>Maleficent: Mistress of Evil</t>
+  </si>
+  <si>
+    <t>Downton Abbey</t>
+  </si>
+  <si>
+    <t>John Wick: Chapter 3 - Parabellum</t>
+  </si>
+  <si>
+    <t>The Courier</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>Dark Waters</t>
+  </si>
+  <si>
+    <t>Shazam!</t>
+  </si>
+  <si>
+    <t>Dark Phoenix</t>
+  </si>
+  <si>
+    <t>Marriage Story</t>
+  </si>
+  <si>
+    <t>Vivarium</t>
+  </si>
+  <si>
+    <t>Booksmart</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Just Mercy</t>
+  </si>
+  <si>
+    <t>The Peanut Butter Falcon</t>
+  </si>
+  <si>
+    <t>Bad Education</t>
+  </si>
+  <si>
+    <t>Angel Has Fallen</t>
+  </si>
+  <si>
+    <t>Richard Jewell</t>
+  </si>
+  <si>
+    <t>Tayna pechati drakona</t>
+  </si>
+  <si>
+    <t>The King</t>
+  </si>
+  <si>
+    <t>Honey Boy</t>
+  </si>
+  <si>
+    <t>Color Out of Space</t>
+  </si>
+  <si>
+    <t>Buffaloed</t>
+  </si>
+  <si>
+    <t>The Personal History of David Copperfield</t>
+  </si>
+  <si>
+    <t>Jay and Silent Bob Reboot</t>
+  </si>
+  <si>
     <t>Line of Duty</t>
   </si>
   <si>
-    <t>Guns Akimbo</t>
-  </si>
-  <si>
-    <t>Just Mercy</t>
-  </si>
-  <si>
-    <t>Jay and Silent Bob Reboot</t>
-  </si>
-  <si>
-    <t>The Vast of Night</t>
-  </si>
-  <si>
-    <t>Downton Abbey</t>
-  </si>
-  <si>
-    <t>A Beautiful Day in the Neighborhood</t>
-  </si>
-  <si>
-    <t>Bombshell</t>
-  </si>
-  <si>
-    <t>The Lighthouse</t>
-  </si>
-  <si>
-    <t>The Lion King</t>
-  </si>
-  <si>
-    <t>Crawl</t>
-  </si>
-  <si>
-    <t>Yummy</t>
-  </si>
-  <si>
-    <t>It Chapter Two</t>
-  </si>
-  <si>
-    <t>Alita: Battle Angel</t>
-  </si>
-  <si>
-    <t>Hustlers</t>
-  </si>
-  <si>
-    <t>The Lodge</t>
-  </si>
-  <si>
-    <t>The Irishman</t>
-  </si>
-  <si>
-    <t>El hoyo</t>
-  </si>
-  <si>
-    <t>Terminator: Dark Fate</t>
-  </si>
-  <si>
-    <t>Portrait de la jeune fille en feu</t>
-  </si>
-  <si>
-    <t>Toy Story 4</t>
-  </si>
-  <si>
-    <t>Midway</t>
-  </si>
-  <si>
-    <t>Aladdin</t>
-  </si>
-  <si>
-    <t>Spider-Man: Far from Home</t>
-  </si>
-  <si>
-    <t>After</t>
-  </si>
-  <si>
-    <t>Captain Marvel</t>
-  </si>
-  <si>
-    <t>Maleficent: Mistress of Evil</t>
-  </si>
-  <si>
-    <t>Fast &amp; Furious Presents: Hobbs &amp; Shaw</t>
-  </si>
-  <si>
-    <t>Us</t>
-  </si>
-  <si>
-    <t>6 Underground</t>
-  </si>
-  <si>
-    <t>I See You</t>
-  </si>
-  <si>
-    <t>Zombieland: Double Tap</t>
-  </si>
-  <si>
-    <t>John Wick: Chapter 3 - Parabellum</t>
-  </si>
-  <si>
-    <t>Yesterday</t>
-  </si>
-  <si>
-    <t>The Personal History of David Copperfield</t>
-  </si>
-  <si>
-    <t>Shazam!</t>
+    <t>Murder Mystery</t>
+  </si>
+  <si>
+    <t>Luce</t>
+  </si>
+  <si>
+    <t>Long Shot</t>
+  </si>
+  <si>
+    <t>21 Bridges</t>
+  </si>
+  <si>
+    <t>Fighting with My Family</t>
   </si>
   <si>
     <t>Babyteeth</t>
   </si>
   <si>
-    <t>Dark Waters</t>
-  </si>
-  <si>
-    <t>Booksmart</t>
-  </si>
-  <si>
-    <t>Dark Phoenix</t>
-  </si>
-  <si>
-    <t>The Goldfinch</t>
-  </si>
-  <si>
-    <t>Angel Has Fallen</t>
-  </si>
-  <si>
-    <t>Anna</t>
+    <t>El Camino: A Breaking Bad Movie</t>
+  </si>
+  <si>
+    <t>Godzilla: King of the Monsters</t>
   </si>
   <si>
     <t>The Good Liar</t>
   </si>
   <si>
-    <t>Cats</t>
-  </si>
-  <si>
-    <t>Rambo: Last Blood</t>
-  </si>
-  <si>
-    <t>Judy</t>
-  </si>
-  <si>
-    <t>The King</t>
-  </si>
-  <si>
-    <t>21 Bridges</t>
-  </si>
-  <si>
-    <t>Vivarium</t>
-  </si>
-  <si>
-    <t>Bad Education</t>
-  </si>
-  <si>
-    <t>Marriage Story</t>
-  </si>
-  <si>
-    <t>The Peanut Butter Falcon</t>
-  </si>
-  <si>
-    <t>Color Out of Space</t>
-  </si>
-  <si>
-    <t>Waiting for the Barbarians</t>
-  </si>
-  <si>
-    <t>Richard Jewell</t>
-  </si>
-  <si>
-    <t>Straight Up</t>
-  </si>
-  <si>
-    <t>Child's Play</t>
+    <t>Men in Black: International</t>
+  </si>
+  <si>
+    <t>The Dead Don't Die</t>
+  </si>
+  <si>
+    <t>Extremely Wicked, Shockingly Evil and Vile</t>
+  </si>
+  <si>
+    <t>Harriet</t>
   </si>
   <si>
     <t>Good Boys</t>
   </si>
   <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>Chhichhore</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Code 8</t>
-  </si>
-  <si>
-    <t>Men in Black: International</t>
-  </si>
-  <si>
-    <t>Murder Mystery</t>
-  </si>
-  <si>
-    <t>The Hustle</t>
-  </si>
-  <si>
-    <t>The Addams Family</t>
-  </si>
-  <si>
-    <t>El Camino: A Breaking Bad Movie</t>
-  </si>
-  <si>
-    <t>The Courier</t>
-  </si>
-  <si>
-    <t>Honey Boy</t>
-  </si>
-  <si>
-    <t>Motherless Brooklyn</t>
-  </si>
-  <si>
-    <t>The Wretched</t>
-  </si>
-  <si>
-    <t>Fighting with My Family</t>
-  </si>
-  <si>
-    <t>Extremely Wicked, Shockingly Evil and Vile</t>
-  </si>
-  <si>
-    <t>Avanpost</t>
-  </si>
-  <si>
-    <t>Trick</t>
-  </si>
-  <si>
-    <t>Five Feet Apart</t>
-  </si>
-  <si>
     <t xml:space="preserve">
     A detective investigates the death of a patriarch of an eccentric, combative family.</t>
   </si>
   <si>
     <t xml:space="preserve">
+    The story of the Battle of Midway, told by the leaders and the sailors who fought it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A faded television actor and his stunt double strive to achieve fame and success in the final years of Hollywood's Golden Age in 1969 Los Angeles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
     Years following the events of The Shining (1980), a now-adult Dan Torrance must protect a young girl with similar powers from a cult known as The True Knot, who prey on children with powers to remain immortal.</t>
   </si>
   <si>
     <t xml:space="preserve">
-    A faded television actor and his stunt double strive to achieve fame and success in the final years of Hollywood's Golden Age in 1969 Los Angeles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
     An American expat tries to sell off his highly profitable marijuana empire in London, triggering plots, schemes, bribery and blackmail in an attempt to steal his domain out from under him.</t>
   </si>
   <si>
     <t xml:space="preserve">
+    American car designer Carroll Shelby and driver Ken Miles battle corporate interference and the laws of physics to build a revolutionary race car for Ford in order to defeat Ferrari at the 24 Hours of Le Mans in 1966.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    In Jumanji: The Next Level, the gang is back but the game has changed. As they return to rescue one of their own, the players will have to brave parts unknown from arid deserts to snowy mountains, to escape the world's most dangerous game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Anna, Elsa, Kristoff, Olaf and Sven leave Arendelle to travel to an ancient, autumn-bound forest of an enchanted land. They set out to find the origin of Elsa's powers in order to save their kingdom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
     Greed and class discrimination threaten the newly formed symbiotic relationship between the wealthy Park family and the destitute Kim clan.</t>
   </si>
   <si>
     <t xml:space="preserve">
-    American car designer Carroll Shelby and driver Ken Miles battle corporate interference and the laws of physics to build a revolutionary race car for Ford in order to defeat Ferrari at the 24 Hours of Le Mans in 1966.</t>
+    In Gotham City, mentally troubled comedian Arthur Fleck is disregarded and mistreated by society. He then embarks on a downward spiral of revolution and bloody crime. This path brings him face-to-face with his alter-ego: the Joker.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -664,7 +680,23 @@
   </si>
   <si>
     <t xml:space="preserve">
-    In Gotham City, mentally troubled comedian Arthur Fleck is disregarded and mistreated by society. He then embarks on a downward spiral of revolution and bloody crime. This path brings him face-to-face with his alter-ego: the Joker.</t>
+    April 6th, 1917. As a regiment assembles to wage war deep in enemy territory, two soldiers are assigned to race against time and deliver a message that will stop 1,600 men from walking straight into a deadly trap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A couple travels to Sweden to visit a rural hometown's fabled mid-summer festival. What begins as an idyllic retreat quickly devolves into an increasingly violent and bizarre competition at the hands of a pagan cult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    With his debts mounting and angry collectors closing in, a fast-talking New York City jeweler risks everything in hope of staying afloat and alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The story that lead to the first conviction for murder of an FBI agent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Twenty-seven years after their first encounter with the terrifying Pennywise, the Losers Club have grown up and moved away, until a devastating phone call brings them back.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -672,19 +704,31 @@
   </si>
   <si>
     <t xml:space="preserve">
-    With his debts mounting and angry collectors closing in, a fast-talking New York City jeweler risks everything in hope of staying afloat and alive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    April 6th, 1917. As a regiment assembles to wage war deep in enemy territory, two soldiers are assigned to race against time and deliver a message that will stop 1,600 men from walking straight into a deadly trap.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A couple travels to Sweden to visit a rural hometown's fabled mid-summer festival. What begins as an idyllic retreat quickly devolves into an increasingly violent and bizarre competition at the hands of a pagan cult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Anna, Elsa, Kristoff, Olaf and Sven leave Arendelle to travel to an ancient, autumn-bound forest of an enchanted land. They set out to find the origin of Elsa's powers in order to save their kingdom.</t>
+    The surviving members of the resistance face the First Order once again, and the legendary conflict between the Jedi and the Sith reaches its peak bringing the Skywalker saga to its end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A young boy in Hitler's army finds out his mother is hiding a Jewish girl in their home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A guy relies on his newly-acquired gladiator skills to save his ex-girlfriend from kidnappers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Jo March reflects back and forth on her life, telling the beloved story of the March sisters - four young women, each determined to live life on her own terms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Astronaut Roy McBride undertakes a mission across an unforgiving solar system to uncover the truth about his missing father and his doomed expedition that now, 30 years later, threatens the universe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    When a young systems engineer blows the whistle on a dangerous technology, Charlie's Angels are called into action, putting their lives on the line to protect us all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    After a comet releases a mysterious virus that begins to kill all the women in the world, a young couple hides out in their over-sterilized apartment trying to fight for their lives.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -692,35 +736,23 @@
   </si>
   <si>
     <t xml:space="preserve">
-    In Jumanji: The Next Level, the gang is back but the game has changed. As they return to rescue one of their own, the players will have to brave parts unknown from arid deserts to snowy mountains, to escape the world's most dangerous game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
     An over-the-hill hitman faces off against a younger clone of himself.</t>
   </si>
   <si>
     <t xml:space="preserve">
-    The surviving members of the resistance face the First Order once again, and the legendary conflict between the Jedi and the Sith reaches its peak bringing the Skywalker saga to its end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A young boy in Hitler's army finds out his mother is hiding a Jewish girl in their home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    When a young systems engineer blows the whistle on a dangerous technology, Charlie's Angels are called into action, putting their lives on the line to protect us all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Jo March reflects back and forth on her life, telling the beloved story of the March sisters - four young women, each determined to live life on her own terms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
     A bride's wedding night takes a sinister turn when her eccentric new in-laws force her to take part in a terrifying game.</t>
   </si>
   <si>
     <t xml:space="preserve">
-    Astronaut Roy McBride undertakes a mission across an unforgiving solar system to uncover the truth about his missing father and his doomed expedition that now, 30 years later, threatens the universe.</t>
+    A boy in New York is taken in by a wealthy Upper East Side family after his mother is killed in a bombing at the Metropolitan Museum of Art.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Inspired by the viral New York Magazine article, Hustlers follows a crew of savvy former strip club employees who band together to turn the tables on their Wall Street clients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    In the twilight of the 1950s, on one fateful night in New Mexico, young switchboard operator Fay and charismatic radio DJ Everett discover a strange audio frequency that could change their small town and the future forever.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -728,148 +760,244 @@
   </si>
   <si>
     <t xml:space="preserve">
+    An old man recalls his time painting houses for his friend, Jimmy Hoffa, through the 1950-70s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    After the murder of his father, a young lion prince flees his kingdom only to learn the true meaning of responsibility and bravery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Two lighthouse keepers try to maintain their sanity whilst living on a remote and mysterious New England island in the 1890s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A group of women take on Fox News head Roger Ailes and the toxic atmosphere he presided over at the network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A skilled cook has traveled west and joined a group of fur trappers in Oregon, though he only finds true connection with a Chinese immigrant also seeking his fortune. Soon the two collaborate on a successful business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Based on the true story of a real-life friendship between Fred Rogers and journalist Lloyd Vogel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    An augmented human and Sarah Connor must stop an advanced liquid Terminator from hunting down a young girl, whose fate is critical to the human race.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A kind-hearted street urchin and a power-hungry Grand Vizier vie for a magic lamp that has the power to make their deepest wishes come true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A story of a North-east Indian football player who's fighting day and night with the society in order to achieve his dreams. The film covers all kinds of layers in one single film from ...                See full summary »
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Based on Peter Carey's novel. The story of Australian bushranger Ned Kelly and his gang as they flee from authorities during the 1870s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A romantic getaway for two troubled college sweethearts turns into a struggle for survival when unexpected guests - and the surrounding environment - exhibit signs of a mysterious infection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A deactivated cyborg is revived, but cannot remember anything of her past life and goes on a quest to find out who she is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A young woman falls for a guy with a dark secret and the two embark on a rocky relationship. Based on the novel by Anna Todd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Carol Danvers becomes one of the universe's most powerful heroes when Earth is caught in the middle of a galactic war between two alien races.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Following the events of Avengers: Endgame (2019), Spider-Man must step up to take on new threats in a world that has changed forever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Rambo must confront his past and unearth his ruthless combat skills to exact revenge in a final mission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Lawman Luke Hobbs (Dwayne "The Rock" Johnson) and outcast Deckard Shaw (Jason Statham) form an unlikely alliance when a cyber-genetically enhanced villain threatens the future of humanity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A young woman, while attempting to save her father during a category 5 hurricane, finds herself trapped in a flooding house and must fight for her life against alligators.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    On an isolated island in Brittany at the end of the eighteenth century, a female painter is obliged to paint a wedding portrait of a young woman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A vertical prison with one cell per level. Two people per cell. One only food platform and two minutes per day to feed from up to down. An endless nightmare trapped in The Hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    An ex-convict working undercover intentionally gets himself incarcerated again in order to infiltrate the mob at a maximum security prison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A soon-to-be stepmom is snowed in with her fiancé's two children at a remote holiday village. Just as relations begin to thaw between the trio, some strange and frightening events take place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Meet a new kind of action hero. Six untraceable agents, totally off the grid. They've buried their pasts so they can change the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A struggling musician realizes he's the only person on Earth who can remember The Beatles after waking up in an alternate timeline where they never existed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Columbus, Tallahassee, Wichita, and Little Rock move to the American heartland as they face off against evolved zombies, fellow survivors, and the growing pains of the snarky makeshift family.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    When a new toy called "Forky" joins Woody and the gang, a road trip alongside old and new friends reveals how big the world can be for a toy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    On Halloween 1968, Stella and her two friends meet a mysterious drifter, Ramón, and uncover a sinister notebook of stories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A story of the scientific and romantic passions of Marie Sklodowska-Curie (Polish scientist) and Pierre Curie, and the reverberation of their discoveries throughout the 20th century.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Strange occurrences plague a small town detective and his family as he investigates the disappearance of a young boy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Maleficent and her goddaughter Aurora begin to question the complex family ties that bind them as they are pulled in different directions by impending nuptials, unexpected allies and dark new forces at play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The continuing story of the Crawley family, wealthy owners of a large estate in the English countryside in the early twentieth century.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    John Wick is on the run after killing a member of the international assassins' guild, and with a $14 million price tag on his head, he is the target of hit men and women everywhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A courier in London discovers that one of the packages she's transporting is a bomb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Beneath Anna Poliatova's striking beauty lies a secret that will unleash her indelible strength and skill to become one of the world's most feared government assassins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A family's serene beach vacation turns to chaos when their doppelgängers appear and begin to terrorize them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A corporate defense attorney takes on an environmental lawsuit against a chemical company that exposes a lengthy history of pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A newly fostered young boy in search of his mother instead finds unexpected super powers and soon gains a powerful enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Jean Grey begins to develop incredible powers that corrupt and turn her into a Dark Phoenix, causing the X-Men to decide if her life is worth more than all of humanity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Noah Baumbach's incisive and compassionate look at a marriage breaking up and a family staying together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A young couple looking for the perfect home find themselves trapped in a mysterious labyrinth-like neighborhood of identical houses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    On the eve of their high school graduation, two academic superstars and best friends realize they should have worked less and played more. Determined not to fall short of their peers, the girls try to cram four years of fun into one night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A tribe of cats called the Jellicles must decide yearly which one will ascend to the Heaviside Layer and come back to a new Jellicle life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    World-renowned civil rights defense attorney Bryan Stevenson works to free a wrongly condemned death row prisoner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Zak runs away from his care home to make his dream of becoming a wrestler come true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The beloved superintendent of New York's Roslyn school district and his staff, friends and relatives become the prime suspects in the unfolding of the single largest public school embezzlement scandal in American history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Mike Banning is framed for the attempted assassination of the President and must evade his own agency and the FBI as he tries to uncover the real threat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    American security guard Richard Jewell saves many lives from an exploding bomb at the 1996 Olympics, but is vilified by journalists and the press who falsely reported that he was a terrorist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Early 1700: Cartographer Jonathan Green (Jason Flemyng) from Viy (2014) is back to map the Russian Far East. He's forced on to China, where he confronts the Dragon Master et al. The iron masked Russian Czar escapes the Tower of London to a Russian ship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Hal, wayward prince and heir to the English throne, is crowned King Henry V after his tyrannical father dies. Now the young king must navigate palace politics, the war his father left behind, and the emotional strings of his past life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A young actor's stormy childhood and early adult years as he struggles to reconcile with his father and deal with his mental health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A secluded farm is struck by a strange meteorite which has apocalyptic consequences for the family living there and possibly the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Set in the underworld of debt-collecting and follows the homegrown hustler Peg Dahl, who will do anything to escape Buffalo, NY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A modern take on Charles Dickens's classic tale of a young orphan who is able to triumph over many obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Jay and Silent Bob return to Hollywood to stop a reboot of the 'Bluntman and Chronic' movie from getting made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
     A disgraced cop finds himself in a race against time to find a kidnap victim whose abductor he accidentally killed.</t>
   </si>
   <si>
     <t xml:space="preserve">
-    A guy relies on his newly-acquired gladiator skills to save his ex-girlfriend from kidnappers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    World-renowned civil rights defense attorney Bryan Stevenson works to free a wrongly condemned death row prisoner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Jay and Silent Bob return to Hollywood to stop a reboot of the 'Bluntman and Chronic' movie from getting made.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    In the twilight of the 1950s, on one fateful night in New Mexico, young switchboard operator Fay and charismatic radio DJ Everett discover a strange audio frequency that could change their small town and the future forever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    The continuing story of the Crawley family, wealthy owners of a large estate in the English countryside in the early twentieth century.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Based on the true story of a real-life friendship between Fred Rogers and journalist Lloyd Vogel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A group of women take on Fox News head Roger Ailes and the toxic atmosphere he presided over at the network.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Two lighthouse keepers try to maintain their sanity whilst living on a remote and mysterious New England island in the 1890s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    After the murder of his father, a young lion prince flees his kingdom only to learn the true meaning of responsibility and bravery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A young woman, while attempting to save her father during a category 5 hurricane, finds herself trapped in a flooding house and must fight for her life against alligators.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Yummy is an orgy of blood, violence and fun in which a young couple travel to a shabby Eastern European hospital for plastic surgery. The young woman wants a breast reduction. Her mother ...                See full summary »
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Twenty-seven years after their first encounter with the terrifying Pennywise, the Losers Club have grown up and moved away, until a devastating phone call brings them back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A deactivated cyborg is revived, but cannot remember anything of her past life and goes on a quest to find out who she is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Inspired by the viral New York Magazine article, Hustlers follows a crew of savvy former strip club employees who band together to turn the tables on their Wall Street clients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A soon-to-be stepmom is snowed in with her fiancé's two children at a remote holiday village. Just as relations begin to thaw between the trio, some strange and frightening events take place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    An old man recalls his time painting houses for his friend, Jimmy Hoffa, through the 1950-70s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A vertical prison with one cell per level. Two people per cell. One only food platform and two minutes per day to feed from up to down. An endless nightmare trapped in The Hole.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    An augmented human and Sarah Connor must stop an advanced liquid Terminator from hunting down a young girl, whose fate is critical to the human race.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    On an isolated island in Brittany at the end of the eighteenth century, a female painter is obliged to paint a wedding portrait of a young woman.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    When a new toy called "Forky" joins Woody and the gang, a road trip alongside old and new friends reveals how big the world can be for a toy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    The story of the Battle of Midway, told by the leaders and the sailors who fought it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A kind-hearted street urchin and a power-hungry Grand Vizier vie for a magic lamp that has the power to make their deepest wishes come true.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Following the events of Avengers: Endgame (2019), Spider-Man must step up to take on new threats in a world that has changed forever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A young woman falls for a guy with a dark secret and the two embark on a rocky relationship. Based on the novel by Anna Todd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Carol Danvers becomes one of the universe's most powerful heroes when Earth is caught in the middle of a galactic war between two alien races.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Maleficent and her goddaughter Aurora begin to question the complex family ties that bind them as they are pulled in different directions by impending nuptials, unexpected allies and dark new forces at play.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Lawman Luke Hobbs (Dwayne "The Rock" Johnson) and outcast Deckard Shaw (Jason Statham) form an unlikely alliance when a cyber-genetically enhanced villain threatens the future of humanity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A family's serene beach vacation turns to chaos when their doppelgängers appear and begin to terrorize them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Meet a new kind of action hero. Six untraceable agents, totally off the grid. They've buried their pasts so they can change the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Strange occurrences plague a small town detective and his family as he investigates the disappearance of a young boy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Columbus, Tallahassee, Wichita, and Little Rock move to the American heartland as they face off against evolved zombies, fellow survivors, and the growing pains of the snarky makeshift family.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    John Wick is on the run after killing a member of the international assassins' guild, and with a $14 million price tag on his head, he is the target of hit men and women everywhere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A struggling musician realizes he's the only person on Earth who can remember The Beatles after waking up in an alternate timeline where they never existed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A modern take on Charles Dickens's classic tale of a young orphan who is able to triumph over many obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A newly fostered young boy in search of his mother instead finds unexpected super powers and soon gains a powerful enemy.</t>
+    A New York cop and his wife go on a European vacation to reinvigorate the spark in their marriage, but end up getting framed and on the run for the death of an elderly billionaire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A married couple is forced to reckon with their idealized image of their son, adopted from war-torn Eritrea, after an alarming discovery by a devoted high school teacher threatens his status as an all-star student.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Journalist Fred Flarsky reunites with his childhood crush, Charlotte Field, now one of the most influential women in the world. As she prepares to make a run for the Presidency, Charlotte hires Fred as her speechwriter and sparks fly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    An embattled NYPD detective is thrust into a citywide manhunt for a pair of cop killers after uncovering a massive and unexpected conspiracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A former wrestler and his family make a living performing at small venues around the country while his kids dream of joining World Wrestling Entertainment.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -877,27 +1005,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-    A corporate defense attorney takes on an environmental lawsuit against a chemical company that exposes a lengthy history of pollution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    On the eve of their high school graduation, two academic superstars and best friends realize they should have worked less and played more. Determined not to fall short of their peers, the girls try to cram four years of fun into one night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Jean Grey begins to develop incredible powers that corrupt and turn her into a Dark Phoenix, causing the X-Men to decide if her life is worth more than all of humanity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A boy in New York is taken in by a wealthy Upper East Side family after his mother is killed in a bombing at the Metropolitan Museum of Art.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Mike Banning is framed for the attempted assassination of the President and must evade his own agency and the FBI as he tries to uncover the real threat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Beneath Anna Poliatova's striking beauty lies a secret that will unleash her indelible strength and skill to become one of the world's most feared government assassins.</t>
+    El Camino: A Breaking Bad Movie follows fugitive Jesse Pinkman as he runs from his captors, the law and his past.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The crypto-zoological agency Monarch faces off against a battery of god-sized monsters, including the mighty Godzilla, who collides with Mothra, Rodan, and his ultimate nemesis, the three-headed King Ghidorah.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -905,459 +1017,350 @@
   </si>
   <si>
     <t xml:space="preserve">
-    A tribe of cats called the Jellicles must decide yearly which one will ascend to the Heaviside Layer and come back to a new Jellicle life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Rambo must confront his past and unearth his ruthless combat skills to exact revenge in a final mission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Legendary performer Judy Garland arrives in London in the winter of 1968 to perform a series of sold-out concerts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Hal, wayward prince and heir to the English throne, is crowned King Henry V after his tyrannical father dies. Now the young king must navigate palace politics, the war his father left behind, and the emotional strings of his past life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    An embattled NYPD detective is thrust into a citywide manhunt for a pair of cop killers after uncovering a massive and unexpected conspiracy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A young couple looking for the perfect home find themselves trapped in a mysterious labyrinth-like neighborhood of identical houses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    The beloved superintendent of New York's Roslyn school district and his staff, friends and relatives become the prime suspects in the unfolding of the single largest public school embezzlement scandal in American history.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Noah Baumbach's incisive and compassionate look at a marriage breaking up and a family staying together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Zak runs away from his care home to make his dream of becoming a wrestler come true.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A secluded farm is struck by a strange meteorite which has apocalyptic consequences for the family living there and possibly the world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A Magistrate working in a distant outpost begins to question his loyalty to the empire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    American security guard Richard Jewell saves many lives from an exploding bomb at the 1996 Olympics, but is vilified by journalists and the press who falsely reported that he was a terrorist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Todd and Rory are intellectual soul mates. He might be gay. She might not care. A romantic-comedy drama with a twist; a love story without the thrill of copulation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A mother gives her 13-year-old son a toy doll for his birthday, unaware of its more sinister nature.</t>
+    The Men in Black have always protected the Earth from the scum of the universe. In this new adventure, they tackle their biggest threat to date: a mole in the Men in Black organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The peaceful town of Centerville finds itself battling a zombie horde as the dead start rising from their graves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    A chronicle of the crimes of Ted Bundy from the perspective of Liz, his longtime girlfriend, who refused to believe the truth about him for years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    The extraordinary tale of Harriet Tubman's escape from slavery and transformation into one of America's greatest heroes, whose courage, ingenuity, and tenacity freed hundreds of slaves and changed the course of history.</t>
   </si>
   <si>
     <t xml:space="preserve">
     Three 6th grade boys ditch school and embark on an epic journey while carrying accidentally stolen drugs, being hunted by teenage girls, and trying to make their way home in time for a long-awaited party.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    Based on the graphic novels by Mike Mignola, Hellboy, caught between the worlds of the supernatural and human, battles an ancient sorceress bent on revenge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A tragic incident forces Anirudh, a middle-aged man, to take a trip down memory lane and reminisce his college days along with his friends, who were labelled as losers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Security guard David Dunn uses his supernatural abilities to track Kevin Wendell Crumb, a disturbed man who has twenty-four personalities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A super-powered construction worker falls in with a group of criminals in order to raise the funds to help his ill mother.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    The Men in Black have always protected the Earth from the scum of the universe. In this new adventure, they tackle their biggest threat to date: a mole in the Men in Black organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A New York cop and his wife go on a European vacation to reinvigorate the spark in their marriage, but end up getting framed and on the run for the death of an elderly billionaire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Two con women - one low rent and the other high class - team up to take down the men who have wronged them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    The eccentrically macabre family moves to a bland suburb where Wednesday Addams' friendship with the daughter of a hostile and conformist local reality show host exacerbates conflict between the families.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    El Camino: A Breaking Bad Movie follows fugitive Jesse Pinkman as he runs from his captors, the law and his past.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A courier in London discovers that one of the packages she's transporting is a bomb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A young actor's stormy childhood and early adult years as he struggles to reconcile with his father and deal with his mental health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    In 1950s New York, a lonely private detective afflicted with Tourette's Syndrome ventures to solve the murder of his mentor and only friend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A defiant teenage boy, struggling with his parents' imminent divorce, faces off with a thousand year-old witch, who is living beneath the skin of and posing as the woman next door.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A former wrestler and his family make a living performing at small venues around the country while his kids dream of joining World Wrestling Entertainment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A chronicle of the crimes of Ted Bundy from the perspective of Liz, his longtime girlfriend, who refused to believe the truth about him for years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Life on Earth is rapidly destroyed except for a small area in Eastern Europe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A no-nonsense detective tries to track down a mass murderer named Trick, who is terrorizing a small town.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    A pair of teenagers with cystic fibrosis meet in a hospital and fall in love, though their disease means they must avoid close physical contact.</t>
-  </si>
-  <si>
     <t>Comedy</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>Drama</t>
   </si>
   <si>
-    <t>Action</t>
+    <t>Animation</t>
   </si>
   <si>
     <t>Crime</t>
   </si>
   <si>
-    <t>Animation</t>
-  </si>
-  <si>
     <t>Adventure</t>
   </si>
   <si>
     <t>Biography</t>
   </si>
   <si>
+    <t>Sport</t>
+  </si>
+  <si>
     <t>Horror</t>
   </si>
   <si>
-    <t>344929</t>
-  </si>
-  <si>
-    <t>111609</t>
-  </si>
-  <si>
-    <t>489980</t>
-  </si>
-  <si>
-    <t>159723</t>
-  </si>
-  <si>
-    <t>445167</t>
-  </si>
-  <si>
-    <t>234228</t>
-  </si>
-  <si>
-    <t>737939</t>
-  </si>
-  <si>
-    <t>825234</t>
-  </si>
-  <si>
-    <t>9766</t>
-  </si>
-  <si>
-    <t>188465</t>
-  </si>
-  <si>
-    <t>342046</t>
-  </si>
-  <si>
-    <t>166525</t>
-  </si>
-  <si>
-    <t>116531</t>
-  </si>
-  <si>
-    <t>4953</t>
-  </si>
-  <si>
-    <t>157125</t>
-  </si>
-  <si>
-    <t>70612</t>
-  </si>
-  <si>
-    <t>338774</t>
-  </si>
-  <si>
-    <t>236112</t>
-  </si>
-  <si>
-    <t>44656</t>
-  </si>
-  <si>
-    <t>114547</t>
-  </si>
-  <si>
-    <t>89490</t>
-  </si>
-  <si>
-    <t>176209</t>
-  </si>
-  <si>
-    <t>120945</t>
-  </si>
-  <si>
-    <t>3503</t>
-  </si>
-  <si>
-    <t>26482</t>
-  </si>
-  <si>
-    <t>34686</t>
-  </si>
-  <si>
-    <t>16339</t>
-  </si>
-  <si>
-    <t>14416</t>
-  </si>
-  <si>
-    <t>34178</t>
-  </si>
-  <si>
-    <t>46619</t>
-  </si>
-  <si>
-    <t>64779</t>
-  </si>
-  <si>
-    <t>112593</t>
-  </si>
-  <si>
-    <t>195791</t>
-  </si>
-  <si>
-    <t>58678</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
-    <t>184766</t>
-  </si>
-  <si>
-    <t>213188</t>
-  </si>
-  <si>
-    <t>73079</t>
-  </si>
-  <si>
-    <t>21234</t>
-  </si>
-  <si>
-    <t>297805</t>
-  </si>
-  <si>
-    <t>136785</t>
-  </si>
-  <si>
-    <t>125855</t>
-  </si>
-  <si>
-    <t>44257</t>
-  </si>
-  <si>
-    <t>184890</t>
-  </si>
-  <si>
-    <t>51094</t>
-  </si>
-  <si>
-    <t>210993</t>
-  </si>
-  <si>
-    <t>298257</t>
-  </si>
-  <si>
-    <t>28866</t>
-  </si>
-  <si>
-    <t>417498</t>
-  </si>
-  <si>
-    <t>73671</t>
-  </si>
-  <si>
-    <t>155232</t>
-  </si>
-  <si>
-    <t>205252</t>
-  </si>
-  <si>
-    <t>125359</t>
-  </si>
-  <si>
-    <t>16382</t>
-  </si>
-  <si>
-    <t>116672</t>
-  </si>
-  <si>
-    <t>252492</t>
-  </si>
-  <si>
-    <t>101418</t>
-  </si>
-  <si>
-    <t>5338</t>
-  </si>
-  <si>
-    <t>236196</t>
-  </si>
-  <si>
-    <t>2260</t>
-  </si>
-  <si>
-    <t>40630</t>
-  </si>
-  <si>
-    <t>81324</t>
-  </si>
-  <si>
-    <t>142519</t>
-  </si>
-  <si>
-    <t>13009</t>
-  </si>
-  <si>
-    <t>70166</t>
-  </si>
-  <si>
-    <t>52680</t>
-  </si>
-  <si>
-    <t>18603</t>
-  </si>
-  <si>
-    <t>34697</t>
-  </si>
-  <si>
-    <t>71778</t>
-  </si>
-  <si>
-    <t>32707</t>
-  </si>
-  <si>
-    <t>76485</t>
-  </si>
-  <si>
-    <t>33478</t>
-  </si>
-  <si>
-    <t>22563</t>
-  </si>
-  <si>
-    <t>20178</t>
-  </si>
-  <si>
-    <t>220449</t>
-  </si>
-  <si>
-    <t>43271</t>
-  </si>
-  <si>
-    <t>21695</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>43419</t>
-  </si>
-  <si>
-    <t>853</t>
-  </si>
-  <si>
-    <t>39845</t>
-  </si>
-  <si>
-    <t>52764</t>
-  </si>
-  <si>
-    <t>73143</t>
-  </si>
-  <si>
-    <t>21385</t>
-  </si>
-  <si>
-    <t>194882</t>
-  </si>
-  <si>
-    <t>29409</t>
-  </si>
-  <si>
-    <t>100937</t>
-  </si>
-  <si>
-    <t>91924</t>
-  </si>
-  <si>
-    <t>42261</t>
-  </si>
-  <si>
-    <t>22152</t>
-  </si>
-  <si>
-    <t>168367</t>
-  </si>
-  <si>
-    <t>4689</t>
-  </si>
-  <si>
-    <t>20496</t>
-  </si>
-  <si>
-    <t>31676</t>
-  </si>
-  <si>
-    <t>4481</t>
-  </si>
-  <si>
-    <t>60855</t>
-  </si>
-  <si>
-    <t>71273</t>
-  </si>
-  <si>
-    <t>3095</t>
-  </si>
-  <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>36446</t>
+    <t>345160</t>
+  </si>
+  <si>
+    <t>51141</t>
+  </si>
+  <si>
+    <t>490179</t>
+  </si>
+  <si>
+    <t>111694</t>
+  </si>
+  <si>
+    <t>159868</t>
+  </si>
+  <si>
+    <t>234403</t>
+  </si>
+  <si>
+    <t>157239</t>
+  </si>
+  <si>
+    <t>116647</t>
+  </si>
+  <si>
+    <t>445386</t>
+  </si>
+  <si>
+    <t>825480</t>
+  </si>
+  <si>
+    <t>738099</t>
+  </si>
+  <si>
+    <t>342228</t>
+  </si>
+  <si>
+    <t>166603</t>
+  </si>
+  <si>
+    <t>188554</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>184901</t>
+  </si>
+  <si>
+    <t>9821</t>
+  </si>
+  <si>
+    <t>338849</t>
+  </si>
+  <si>
+    <t>236230</t>
+  </si>
+  <si>
+    <t>26506</t>
+  </si>
+  <si>
+    <t>114622</t>
+  </si>
+  <si>
+    <t>176335</t>
+  </si>
+  <si>
+    <t>44686</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>4977</t>
+  </si>
+  <si>
+    <t>70647</t>
+  </si>
+  <si>
+    <t>89527</t>
+  </si>
+  <si>
+    <t>13024</t>
+  </si>
+  <si>
+    <t>73114</t>
+  </si>
+  <si>
+    <t>14475</t>
+  </si>
+  <si>
+    <t>120970</t>
+  </si>
+  <si>
+    <t>297874</t>
+  </si>
+  <si>
+    <t>195827</t>
+  </si>
+  <si>
+    <t>112645</t>
+  </si>
+  <si>
+    <t>64806</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>46658</t>
+  </si>
+  <si>
+    <t>125902</t>
+  </si>
+  <si>
+    <t>211029</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>4327</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>213223</t>
+  </si>
+  <si>
+    <t>28880</t>
+  </si>
+  <si>
+    <t>417556</t>
+  </si>
+  <si>
+    <t>298321</t>
+  </si>
+  <si>
+    <t>71853</t>
+  </si>
+  <si>
+    <t>155273</t>
+  </si>
+  <si>
+    <t>58698</t>
+  </si>
+  <si>
+    <t>44292</t>
+  </si>
+  <si>
+    <t>136857</t>
+  </si>
+  <si>
+    <t>13936</t>
+  </si>
+  <si>
+    <t>21261</t>
+  </si>
+  <si>
+    <t>125393</t>
+  </si>
+  <si>
+    <t>101443</t>
+  </si>
+  <si>
+    <t>116734</t>
+  </si>
+  <si>
+    <t>184948</t>
+  </si>
+  <si>
+    <t>51821</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>16422</t>
+  </si>
+  <si>
+    <t>73709</t>
+  </si>
+  <si>
+    <t>34185</t>
+  </si>
+  <si>
+    <t>252538</t>
+  </si>
+  <si>
+    <t>4698</t>
+  </si>
+  <si>
+    <t>52701</t>
+  </si>
+  <si>
+    <t>205295</t>
+  </si>
+  <si>
+    <t>40654</t>
+  </si>
+  <si>
+    <t>236238</t>
+  </si>
+  <si>
+    <t>142543</t>
+  </si>
+  <si>
+    <t>220512</t>
+  </si>
+  <si>
+    <t>22596</t>
+  </si>
+  <si>
+    <t>81344</t>
+  </si>
+  <si>
+    <t>34710</t>
+  </si>
+  <si>
+    <t>34714</t>
+  </si>
+  <si>
+    <t>43303</t>
+  </si>
+  <si>
+    <t>20208</t>
+  </si>
+  <si>
+    <t>70192</t>
+  </si>
+  <si>
+    <t>43455</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>76513</t>
+  </si>
+  <si>
+    <t>20516</t>
+  </si>
+  <si>
+    <t>21714</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>5351</t>
+  </si>
+  <si>
+    <t>16351</t>
+  </si>
+  <si>
+    <t>3505</t>
+  </si>
+  <si>
+    <t>91951</t>
+  </si>
+  <si>
+    <t>7626</t>
+  </si>
+  <si>
+    <t>85352</t>
+  </si>
+  <si>
+    <t>33499</t>
+  </si>
+  <si>
+    <t>60865</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>168399</t>
+  </si>
+  <si>
+    <t>122557</t>
+  </si>
+  <si>
+    <t>18614</t>
+  </si>
+  <si>
+    <t>100959</t>
+  </si>
+  <si>
+    <t>44593</t>
+  </si>
+  <si>
+    <t>71281</t>
+  </si>
+  <si>
+    <t>14978</t>
+  </si>
+  <si>
+    <t>52782</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1458,7 @@
         <v>7.9</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
@@ -1472,16 +1475,16 @@
         <v>208</v>
       </c>
       <c r="E3" t="n">
-        <v>152.0</v>
+        <v>138.0</v>
       </c>
       <c r="F3" t="s">
         <v>308</v>
       </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
@@ -1507,7 +1510,7 @@
         <v>7.7</v>
       </c>
       <c r="H4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5">
@@ -1524,16 +1527,16 @@
         <v>210</v>
       </c>
       <c r="E5" t="n">
-        <v>113.0</v>
+        <v>152.0</v>
       </c>
       <c r="F5" t="s">
         <v>309</v>
       </c>
       <c r="G5" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -1550,16 +1553,16 @@
         <v>211</v>
       </c>
       <c r="E6" t="n">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
@@ -1579,13 +1582,13 @@
         <v>152.0</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" t="n">
         <v>8.1</v>
       </c>
       <c r="H7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8">
@@ -1602,16 +1605,16 @@
         <v>213</v>
       </c>
       <c r="E8" t="n">
-        <v>181.0</v>
+        <v>123.0</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
@@ -1628,16 +1631,16 @@
         <v>214</v>
       </c>
       <c r="E9" t="n">
-        <v>122.0</v>
+        <v>103.0</v>
       </c>
       <c r="F9" t="s">
         <v>310</v>
       </c>
       <c r="G9" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -1654,16 +1657,16 @@
         <v>215</v>
       </c>
       <c r="E10" t="n">
-        <v>93.0</v>
+        <v>132.0</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G10" t="n">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="H10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
@@ -1680,16 +1683,16 @@
         <v>216</v>
       </c>
       <c r="E11" t="n">
-        <v>135.0</v>
+        <v>122.0</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
@@ -1706,16 +1709,16 @@
         <v>217</v>
       </c>
       <c r="E12" t="n">
-        <v>119.0</v>
+        <v>181.0</v>
       </c>
       <c r="F12" t="s">
         <v>308</v>
       </c>
       <c r="G12" t="n">
-        <v>8.3</v>
+        <v>8.4</v>
       </c>
       <c r="H12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13">
@@ -1732,16 +1735,16 @@
         <v>218</v>
       </c>
       <c r="E13" t="n">
-        <v>148.0</v>
+        <v>119.0</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G13" t="n">
-        <v>7.1</v>
+        <v>8.3</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14">
@@ -1758,16 +1761,16 @@
         <v>219</v>
       </c>
       <c r="E14" t="n">
-        <v>103.0</v>
+        <v>148.0</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G14" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15">
@@ -1784,16 +1787,16 @@
         <v>220</v>
       </c>
       <c r="E15" t="n">
-        <v>127.0</v>
+        <v>135.0</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G15" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16">
@@ -1810,16 +1813,16 @@
         <v>221</v>
       </c>
       <c r="E16" t="n">
-        <v>123.0</v>
+        <v>104.0</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G16" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
@@ -1836,16 +1839,16 @@
         <v>222</v>
       </c>
       <c r="E17" t="n">
-        <v>117.0</v>
+        <v>169.0</v>
       </c>
       <c r="F17" t="s">
         <v>309</v>
       </c>
       <c r="G17" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18">
@@ -1862,16 +1865,16 @@
         <v>223</v>
       </c>
       <c r="E18" t="n">
-        <v>142.0</v>
+        <v>93.0</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19">
@@ -1888,16 +1891,16 @@
         <v>224</v>
       </c>
       <c r="E19" t="n">
-        <v>108.0</v>
+        <v>142.0</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G19" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="H19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20">
@@ -1914,16 +1917,16 @@
         <v>225</v>
       </c>
       <c r="E20" t="n">
-        <v>118.0</v>
+        <v>108.0</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>7.9</v>
       </c>
       <c r="H20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21">
@@ -1940,16 +1943,16 @@
         <v>226</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0</v>
+        <v>98.0</v>
       </c>
       <c r="F21" t="s">
         <v>308</v>
       </c>
       <c r="G21" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="H21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22">
@@ -1966,16 +1969,16 @@
         <v>227</v>
       </c>
       <c r="E22" t="n">
-        <v>95.0</v>
+        <v>135.0</v>
       </c>
       <c r="F22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="H22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23">
@@ -2001,7 +2004,7 @@
         <v>6.6</v>
       </c>
       <c r="H23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24">
@@ -2018,16 +2021,16 @@
         <v>229</v>
       </c>
       <c r="E24" t="n">
-        <v>121.0</v>
+        <v>118.0</v>
       </c>
       <c r="F24" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G24" t="n">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25">
@@ -2050,10 +2053,10 @@
         <v>309</v>
       </c>
       <c r="G25" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26">
@@ -2070,16 +2073,16 @@
         <v>231</v>
       </c>
       <c r="E26" t="n">
-        <v>98.0</v>
+        <v>127.0</v>
       </c>
       <c r="F26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27">
@@ -2096,16 +2099,16 @@
         <v>232</v>
       </c>
       <c r="E27" t="n">
-        <v>137.0</v>
+        <v>117.0</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28">
@@ -2122,16 +2125,16 @@
         <v>233</v>
       </c>
       <c r="E28" t="n">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
       <c r="F28" t="s">
         <v>307</v>
       </c>
       <c r="G28" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29">
@@ -2148,16 +2151,16 @@
         <v>234</v>
       </c>
       <c r="E29" t="n">
-        <v>91.0</v>
+        <v>149.0</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G29" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30">
@@ -2174,16 +2177,16 @@
         <v>235</v>
       </c>
       <c r="E30" t="n">
-        <v>122.0</v>
+        <v>110.0</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G30" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="H30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31">
@@ -2200,16 +2203,16 @@
         <v>236</v>
       </c>
       <c r="E31" t="n">
-        <v>109.0</v>
+        <v>91.0</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G31" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32">
@@ -2226,16 +2229,16 @@
         <v>237</v>
       </c>
       <c r="E32" t="n">
-        <v>109.0</v>
+        <v>121.0</v>
       </c>
       <c r="F32" t="s">
         <v>313</v>
       </c>
       <c r="G32" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33">
@@ -2252,16 +2255,16 @@
         <v>238</v>
       </c>
       <c r="E33" t="n">
-        <v>109.0</v>
+        <v>209.0</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G33" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="H33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34">
@@ -2281,13 +2284,13 @@
         <v>118.0</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G34" t="n">
         <v>6.9</v>
       </c>
       <c r="H34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
@@ -2304,16 +2307,16 @@
         <v>240</v>
       </c>
       <c r="E35" t="n">
-        <v>87.0</v>
+        <v>109.0</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G35" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="H35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
@@ -2330,16 +2333,16 @@
         <v>241</v>
       </c>
       <c r="E36" t="n">
-        <v>88.0</v>
+        <v>109.0</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G36" t="n">
-        <v>6.0</v>
+        <v>6.8</v>
       </c>
       <c r="H36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
@@ -2356,16 +2359,16 @@
         <v>242</v>
       </c>
       <c r="E37" t="n">
-        <v>169.0</v>
+        <v>122.0</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
@@ -2382,16 +2385,16 @@
         <v>243</v>
       </c>
       <c r="E38" t="n">
-        <v>122.0</v>
+        <v>109.0</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G38" t="n">
         <v>7.3</v>
       </c>
       <c r="H38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39">
@@ -2408,16 +2411,16 @@
         <v>244</v>
       </c>
       <c r="E39" t="n">
-        <v>110.0</v>
+        <v>128.0</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G39" t="n">
         <v>6.3</v>
       </c>
       <c r="H39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40">
@@ -2434,16 +2437,16 @@
         <v>245</v>
       </c>
       <c r="E40" t="n">
-        <v>108.0</v>
+        <v>128.0</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G40" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
@@ -2460,16 +2463,16 @@
         <v>246</v>
       </c>
       <c r="E41" t="n">
-        <v>209.0</v>
+        <v>128.0</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G41" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="H41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
@@ -2486,16 +2489,16 @@
         <v>247</v>
       </c>
       <c r="E42" t="n">
-        <v>94.0</v>
+        <v>124.0</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G42" t="n">
-        <v>7.0</v>
+        <v>6.1</v>
       </c>
       <c r="H42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
@@ -2512,16 +2515,16 @@
         <v>248</v>
       </c>
       <c r="E43" t="n">
-        <v>128.0</v>
+        <v>88.0</v>
       </c>
       <c r="F43" t="s">
         <v>309</v>
       </c>
       <c r="G43" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="H43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
@@ -2544,10 +2547,10 @@
         <v>308</v>
       </c>
       <c r="G44" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="H44" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
@@ -2564,16 +2567,16 @@
         <v>250</v>
       </c>
       <c r="E45" t="n">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G45" t="n">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="H45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
@@ -2590,16 +2593,16 @@
         <v>251</v>
       </c>
       <c r="E46" t="n">
-        <v>138.0</v>
+        <v>123.0</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
@@ -2616,16 +2619,16 @@
         <v>252</v>
       </c>
       <c r="E47" t="n">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G47" t="n">
-        <v>7.0</v>
+        <v>7.5</v>
       </c>
       <c r="H47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48">
@@ -2642,16 +2645,16 @@
         <v>253</v>
       </c>
       <c r="E48" t="n">
-        <v>129.0</v>
+        <v>89.0</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G48" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="H48" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49">
@@ -2668,16 +2671,16 @@
         <v>254</v>
       </c>
       <c r="E49" t="n">
-        <v>105.0</v>
+        <v>137.0</v>
       </c>
       <c r="F49" t="s">
         <v>308</v>
       </c>
       <c r="G49" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H49" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50">
@@ -2694,16 +2697,16 @@
         <v>255</v>
       </c>
       <c r="E50" t="n">
-        <v>123.0</v>
+        <v>87.0</v>
       </c>
       <c r="F50" t="s">
         <v>309</v>
       </c>
       <c r="G50" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="H50" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51">
@@ -2720,16 +2723,16 @@
         <v>256</v>
       </c>
       <c r="E51" t="n">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="F51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G51" t="n">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="H51" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52">
@@ -2746,16 +2749,16 @@
         <v>257</v>
       </c>
       <c r="E52" t="n">
-        <v>137.0</v>
+        <v>94.0</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>7.0</v>
       </c>
       <c r="H52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
@@ -2772,16 +2775,16 @@
         <v>258</v>
       </c>
       <c r="E53" t="n">
-        <v>116.0</v>
+        <v>113.0</v>
       </c>
       <c r="F53" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G53" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54">
@@ -2798,16 +2801,16 @@
         <v>259</v>
       </c>
       <c r="E54" t="n">
-        <v>128.0</v>
+        <v>108.0</v>
       </c>
       <c r="F54" t="s">
         <v>309</v>
       </c>
       <c r="G54" t="n">
-        <v>6.1</v>
+        <v>6.0</v>
       </c>
       <c r="H54" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55">
@@ -2824,16 +2827,16 @@
         <v>260</v>
       </c>
       <c r="E55" t="n">
-        <v>98.0</v>
+        <v>128.0</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G55" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="H55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56">
@@ -2850,16 +2853,16 @@
         <v>261</v>
       </c>
       <c r="E56" t="n">
-        <v>99.0</v>
+        <v>116.0</v>
       </c>
       <c r="F56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G56" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57">
@@ -2876,16 +2879,16 @@
         <v>262</v>
       </c>
       <c r="E57" t="n">
-        <v>130.0</v>
+        <v>99.0</v>
       </c>
       <c r="F57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58">
@@ -2902,16 +2905,16 @@
         <v>263</v>
       </c>
       <c r="E58" t="n">
-        <v>116.0</v>
+        <v>100.0</v>
       </c>
       <c r="F58" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G58" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59">
@@ -2928,16 +2931,16 @@
         <v>264</v>
       </c>
       <c r="E59" t="n">
-        <v>119.0</v>
+        <v>108.0</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G59" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60">
@@ -2954,16 +2957,16 @@
         <v>265</v>
       </c>
       <c r="E60" t="n">
-        <v>132.0</v>
+        <v>109.0</v>
       </c>
       <c r="F60" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G60" t="n">
-        <v>7.1</v>
+        <v>6.0</v>
       </c>
       <c r="H60" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61">
@@ -2980,16 +2983,16 @@
         <v>266</v>
       </c>
       <c r="E61" t="n">
-        <v>118.0</v>
+        <v>98.0</v>
       </c>
       <c r="F61" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G61" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62">
@@ -3006,16 +3009,16 @@
         <v>267</v>
       </c>
       <c r="E62" t="n">
-        <v>126.0</v>
+        <v>119.0</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G62" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63">
@@ -3032,16 +3035,16 @@
         <v>268</v>
       </c>
       <c r="E63" t="n">
-        <v>102.0</v>
+        <v>122.0</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G63" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64">
@@ -3058,16 +3061,16 @@
         <v>269</v>
       </c>
       <c r="E64" t="n">
-        <v>113.0</v>
+        <v>130.0</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G64" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="H64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65">
@@ -3084,16 +3087,16 @@
         <v>270</v>
       </c>
       <c r="E65" t="n">
-        <v>149.0</v>
+        <v>99.0</v>
       </c>
       <c r="F65" t="s">
         <v>308</v>
       </c>
       <c r="G65" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="H65" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66">
@@ -3110,16 +3113,16 @@
         <v>271</v>
       </c>
       <c r="E66" t="n">
-        <v>121.0</v>
+        <v>118.0</v>
       </c>
       <c r="F66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G66" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H66" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67">
@@ -3136,16 +3139,16 @@
         <v>272</v>
       </c>
       <c r="E67" t="n">
-        <v>118.0</v>
+        <v>116.0</v>
       </c>
       <c r="F67" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G67" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3165,16 @@
         <v>273</v>
       </c>
       <c r="E68" t="n">
-        <v>109.0</v>
+        <v>126.0</v>
       </c>
       <c r="F68" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G68" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H68" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69">
@@ -3188,16 +3191,16 @@
         <v>274</v>
       </c>
       <c r="E69" t="n">
-        <v>110.0</v>
+        <v>132.0</v>
       </c>
       <c r="F69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>7.1</v>
       </c>
       <c r="H69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70">
@@ -3214,16 +3217,16 @@
         <v>275</v>
       </c>
       <c r="E70" t="n">
-        <v>89.0</v>
+        <v>113.0</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G70" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71">
@@ -3240,16 +3243,16 @@
         <v>276</v>
       </c>
       <c r="E71" t="n">
-        <v>118.0</v>
+        <v>137.0</v>
       </c>
       <c r="F71" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G71" t="n">
-        <v>6.8</v>
+        <v>8.0</v>
       </c>
       <c r="H71" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72">
@@ -3266,16 +3269,16 @@
         <v>277</v>
       </c>
       <c r="E72" t="n">
-        <v>140.0</v>
+        <v>97.0</v>
       </c>
       <c r="F72" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G72" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H72" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73">
@@ -3292,16 +3295,16 @@
         <v>278</v>
       </c>
       <c r="E73" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="F73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G73" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H73" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74">
@@ -3318,16 +3321,16 @@
         <v>279</v>
       </c>
       <c r="E74" t="n">
-        <v>97.0</v>
+        <v>110.0</v>
       </c>
       <c r="F74" t="s">
         <v>307</v>
       </c>
       <c r="G74" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75">
@@ -3344,16 +3347,16 @@
         <v>280</v>
       </c>
       <c r="E75" t="n">
-        <v>108.0</v>
+        <v>137.0</v>
       </c>
       <c r="F75" t="s">
         <v>313</v>
       </c>
       <c r="G75" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="H75" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76">
@@ -3370,16 +3373,16 @@
         <v>281</v>
       </c>
       <c r="E76" t="n">
-        <v>137.0</v>
+        <v>97.0</v>
       </c>
       <c r="F76" t="s">
         <v>307</v>
       </c>
       <c r="G76" t="n">
-        <v>8.0</v>
+        <v>7.6</v>
       </c>
       <c r="H76" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77">
@@ -3396,16 +3399,16 @@
         <v>282</v>
       </c>
       <c r="E77" t="n">
-        <v>97.0</v>
+        <v>108.0</v>
       </c>
       <c r="F77" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G77" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="H77" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78">
@@ -3422,16 +3425,16 @@
         <v>283</v>
       </c>
       <c r="E78" t="n">
-        <v>111.0</v>
+        <v>121.0</v>
       </c>
       <c r="F78" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G78" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79">
@@ -3448,16 +3451,16 @@
         <v>284</v>
       </c>
       <c r="E79" t="n">
-        <v>112.0</v>
+        <v>131.0</v>
       </c>
       <c r="F79" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G79" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="H79" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80">
@@ -3474,16 +3477,16 @@
         <v>285</v>
       </c>
       <c r="E80" t="n">
-        <v>131.0</v>
+        <v>120.0</v>
       </c>
       <c r="F80" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G80" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81">
@@ -3500,16 +3503,16 @@
         <v>286</v>
       </c>
       <c r="E81" t="n">
-        <v>95.0</v>
+        <v>140.0</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G81" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82">
@@ -3526,16 +3529,16 @@
         <v>287</v>
       </c>
       <c r="E82" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="F82" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H82" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83">
@@ -3552,16 +3555,16 @@
         <v>288</v>
       </c>
       <c r="E83" t="n">
-        <v>90.0</v>
+        <v>111.0</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G83" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H83" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84">
@@ -3578,16 +3581,16 @@
         <v>289</v>
       </c>
       <c r="E84" t="n">
-        <v>120.0</v>
+        <v>95.0</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G84" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="H84" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85">
@@ -3604,16 +3607,16 @@
         <v>290</v>
       </c>
       <c r="E85" t="n">
-        <v>143.0</v>
+        <v>119.0</v>
       </c>
       <c r="F85" t="s">
         <v>307</v>
       </c>
       <c r="G85" t="n">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="H85" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86">
@@ -3630,16 +3633,16 @@
         <v>291</v>
       </c>
       <c r="E86" t="n">
-        <v>129.0</v>
+        <v>105.0</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G86" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="H86" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87">
@@ -3659,13 +3662,13 @@
         <v>98.0</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G87" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88">
@@ -3682,16 +3685,16 @@
         <v>293</v>
       </c>
       <c r="E88" t="n">
-        <v>114.0</v>
+        <v>97.0</v>
       </c>
       <c r="F88" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G88" t="n">
-        <v>5.6</v>
+        <v>6.0</v>
       </c>
       <c r="H88" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89">
@@ -3708,16 +3711,16 @@
         <v>294</v>
       </c>
       <c r="E89" t="n">
-        <v>97.0</v>
+        <v>109.0</v>
       </c>
       <c r="F89" t="s">
         <v>309</v>
       </c>
       <c r="G89" t="n">
-        <v>6.0</v>
+        <v>6.7</v>
       </c>
       <c r="H89" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90">
@@ -3734,16 +3737,16 @@
         <v>295</v>
       </c>
       <c r="E90" t="n">
-        <v>93.0</v>
+        <v>125.0</v>
       </c>
       <c r="F90" t="s">
         <v>307</v>
       </c>
       <c r="G90" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H90" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91">
@@ -3760,16 +3763,16 @@
         <v>296</v>
       </c>
       <c r="E91" t="n">
-        <v>86.0</v>
+        <v>99.0</v>
       </c>
       <c r="F91" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G91" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H91" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92">
@@ -3786,16 +3789,16 @@
         <v>297</v>
       </c>
       <c r="E92" t="n">
-        <v>122.0</v>
+        <v>108.0</v>
       </c>
       <c r="F92" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G92" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="H92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93">
@@ -3812,16 +3815,16 @@
         <v>298</v>
       </c>
       <c r="E93" t="n">
-        <v>99.0</v>
+        <v>118.0</v>
       </c>
       <c r="F93" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G93" t="n">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
       <c r="H93" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94">
@@ -3838,7 +3841,7 @@
         <v>299</v>
       </c>
       <c r="E94" t="n">
-        <v>94.0</v>
+        <v>122.0</v>
       </c>
       <c r="F94" t="s">
         <v>308</v>
@@ -3847,7 +3850,7 @@
         <v>7.3</v>
       </c>
       <c r="H94" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95">
@@ -3864,16 +3867,16 @@
         <v>300</v>
       </c>
       <c r="E95" t="n">
-        <v>144.0</v>
+        <v>132.0</v>
       </c>
       <c r="F95" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G95" t="n">
-        <v>6.8</v>
+        <v>6.0</v>
       </c>
       <c r="H95" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96">
@@ -3890,16 +3893,16 @@
         <v>301</v>
       </c>
       <c r="E96" t="n">
-        <v>95.0</v>
+        <v>109.0</v>
       </c>
       <c r="F96" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G96" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H96" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97">
@@ -3916,16 +3919,16 @@
         <v>302</v>
       </c>
       <c r="E97" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="F97" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G97" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="H97" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98">
@@ -3942,16 +3945,16 @@
         <v>303</v>
       </c>
       <c r="E98" t="n">
-        <v>110.0</v>
+        <v>104.0</v>
       </c>
       <c r="F98" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G98" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="H98" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99">
@@ -3968,16 +3971,16 @@
         <v>304</v>
       </c>
       <c r="E99" t="n">
-        <v>127.0</v>
+        <v>110.0</v>
       </c>
       <c r="F99" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G99" t="n">
-        <v>6.0</v>
+        <v>6.6</v>
       </c>
       <c r="H99" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100">
@@ -3994,16 +3997,16 @@
         <v>305</v>
       </c>
       <c r="E100" t="n">
-        <v>100.0</v>
+        <v>125.0</v>
       </c>
       <c r="F100" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G100" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="H100" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101">
@@ -4020,16 +4023,16 @@
         <v>306</v>
       </c>
       <c r="E101" t="n">
-        <v>116.0</v>
+        <v>90.0</v>
       </c>
       <c r="F101" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G101" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="H101" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
